--- a/OnBoard/output/trust/bio/Bio_Trust_51.xlsx
+++ b/OnBoard/output/trust/bio/Bio_Trust_51.xlsx
@@ -3776,6 +3776,9 @@
       <c r="G72">
         <v>1</v>
       </c>
+      <c r="H72">
+        <v>73</v>
+      </c>
       <c r="I72">
         <v>-1</v>
       </c>
@@ -3786,6 +3789,11 @@
       </c>
       <c r="L72">
         <v>0</v>
+      </c>
+      <c r="P72" t="inlineStr">
+        <is>
+          <t>nolw l inferred</t>
+        </is>
       </c>
     </row>
     <row r="73">
